--- a/results/I3_N5_M2_T45_C200_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>870.0831571140632</v>
+        <v>822.8728587124743</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.39770858716315</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.677845614195805</v>
+        <v>4.02175110787769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.78329414108774</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>854.5800000000081</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.07084158034161</v>
+        <v>34.3512412022318</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.18449368032031</v>
+        <v>38.23758910225306</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.37739353073907</v>
+        <v>2.420950226667209</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>44.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.63960887452038</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.79834375740628</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,15 +1113,29 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>256.7950000000012</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>285.5400000000013</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>284.0350000000012</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>293.9800000000012</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>288.8950000000012</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>188.6200000000006</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>209.4100000000006</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>208.1950000000006</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>217.0700000000006</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>213.0450000000006</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.06</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.715</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.21999999999979</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34499999999979</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.47999999999978</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.85999999999977</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41499999999978</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>256.7950000000012</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>285.5400000000013</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>284.0350000000012</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>293.9800000000012</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>288.8950000000012</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>56.79500000000121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>85.54000000000127</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>84.03500000000122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>93.98000000000121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>88.89500000000123</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.05999999999932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1722,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.714999999999293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1744,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.2699999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1967,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1978,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1989,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2000,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2069,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2107,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2118,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2129,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2140,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2151,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2162,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2173,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2184,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2195,34 +2209,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>
